--- a/upload/exchange/import/autoImportRuleBasket.xlsx
+++ b/upload/exchange/import/autoImportRuleBasket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\OpenServer\domains\ash-bitrix.loc\upload\exchange\import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\WorkProjects\OpenServer\domains\ash-bitrix.loc\upload\exchange\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88A7309-2385-44E9-A300-79C20A083257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE7356-7632-4C95-ABCF-64C1DE9DD9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5790" yWindow="2985" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4785" yWindow="3045" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ИмпортПравилКорзины" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -388,82 +390,88 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="6">
         <v>100</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>44196.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>47484</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>200</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>777</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>44571.5</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="4">
         <v>47484</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
+      <c r="B5" s="2">
+        <v>200</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6">
-        <v>400</v>
-      </c>
+      <c r="B6" s="2">
+        <v>200</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
